--- a/medicine/Sexualité et sexologie/Nudité_en_public/Nudité_en_public.xlsx
+++ b/medicine/Sexualité et sexologie/Nudité_en_public/Nudité_en_public.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nudit%C3%A9_en_public</t>
+          <t>Nudité_en_public</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nudité en public consiste à laisser voir certaines parties intimes ou l'intégralité de son corps, en dehors du cadre strictement privé. Elle constitue fréquemment une transgression de normes sociales, voire de lois, mais son acceptation sociale varie selon les époques, les sociétés et les cultures. Historiquement, plusieurs groupes et communautés ont pu recourir à la nudité en public afin de se situer en conformité avec une croyance ou une philosophie, ou bien pour promouvoir diverses causes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nudit%C3%A9_en_public</t>
+          <t>Nudité_en_public</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Cadre légal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses sociétés contemporaines intègrent à leur arsenal législatif des éléments permettant de réprimer la nudité en public, en l'assimilant à une volonté délictuelle d'attentat à la pudeur ou d'exhibition sexuelle.
-Droit canadien
-En droit canadien, la nudité en public est une infraction punissable par procédure sommaire visée par l'article 174 du Code criminel[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nudité_en_public</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nudit%C3%A9_en_public</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cadre légal</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Droit canadien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En droit canadien, la nudité en public est une infraction punissable par procédure sommaire visée par l'article 174 du Code criminel.
 « 174 (1) Est coupable d’une infraction punissable sur déclaration de culpabilité par procédure sommaire quiconque, sans excuse légitime, selon le cas :
 a) est nu dans un endroit public;
 b) est nu et exposé à la vue du public sur une propriété privée, que la propriété soit la sienne ou non. [...] »
